--- a/Species_counts_createWIS_BankLoc.xlsx
+++ b/Species_counts_createWIS_BankLoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\.ssh\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9453BB5-9410-42D6-BD3F-4C3B0CABA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515F636-557B-431B-8456-2024BEECF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12674,7 +12674,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EEA92D0-8B2E-4C9F-87FF-EB34846167DA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EEA92D0-8B2E-4C9F-87FF-EB34846167DA}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -13321,7 +13321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L851"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -45677,8 +45677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5C9438-AFE8-431F-8CEA-FB1FFC1514BE}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Species_counts_createWIS_BankLoc.xlsx
+++ b/Species_counts_createWIS_BankLoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\.ssh\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515F636-557B-431B-8456-2024BEECF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C315C9-EDEB-476B-B54B-8385528FAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-100" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8554" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8554" uniqueCount="152">
   <si>
     <t>sample.bout</t>
   </si>
@@ -490,6 +490,9 @@
   <si>
     <t>Baseline</t>
   </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
 </sst>
 </file>
 
@@ -12674,7 +12677,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EEA92D0-8B2E-4C9F-87FF-EB34846167DA}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EEA92D0-8B2E-4C9F-87FF-EB34846167DA}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -12688,7 +12691,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
@@ -45678,13 +45681,13 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -45750,7 +45753,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7">
         <f>SUM(J2:N2)</f>
@@ -45800,7 +45803,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -45809,7 +45812,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H66" si="0">SUM(J3:N3)</f>
@@ -45862,23 +45865,23 @@
         <v>14</v>
       </c>
       <c r="G4" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -45888,7 +45891,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
@@ -45896,7 +45899,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
         <f t="shared" si="4"/>
@@ -45921,11 +45924,11 @@
         <v>28</v>
       </c>
       <c r="G5" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -45937,7 +45940,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -45955,7 +45958,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
         <f t="shared" si="4"/>
@@ -45963,7 +45966,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -45971,7 +45974,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -45980,7 +45983,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
@@ -45993,10 +45996,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -46010,11 +46013,11 @@
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="R6">
         <f t="shared" si="4"/>
@@ -46030,7 +46033,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -46039,23 +46042,23 @@
         <v>28</v>
       </c>
       <c r="G7" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -46065,15 +46068,15 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="4"/>
@@ -46148,7 +46151,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -46207,7 +46210,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -46266,7 +46269,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -46275,7 +46278,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="6">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
@@ -46325,7 +46328,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -46334,11 +46337,11 @@
         <v>43</v>
       </c>
       <c r="G12" s="6">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
@@ -46350,7 +46353,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -46360,7 +46363,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
@@ -46368,7 +46371,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
@@ -46376,7 +46379,7 @@
       </c>
       <c r="S12">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -46384,7 +46387,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -46393,23 +46396,23 @@
         <v>43</v>
       </c>
       <c r="G13" s="6">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -46452,7 +46455,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
@@ -46502,7 +46505,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -46511,7 +46514,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
@@ -46561,7 +46564,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -46570,17 +46573,17 @@
         <v>47</v>
       </c>
       <c r="G16" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -46596,7 +46599,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
@@ -46604,7 +46607,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
@@ -46620,7 +46623,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -46629,7 +46632,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
@@ -46679,7 +46682,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -46688,11 +46691,11 @@
         <v>50</v>
       </c>
       <c r="G18" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -46707,7 +46710,7 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -46722,11 +46725,11 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="R18">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
@@ -46738,7 +46741,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -46747,41 +46750,41 @@
         <v>50</v>
       </c>
       <c r="G19" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="R19">
         <f t="shared" si="4"/>
@@ -46789,7 +46792,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -46797,7 +46800,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -46806,7 +46809,7 @@
         <v>54</v>
       </c>
       <c r="G20" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
@@ -46856,7 +46859,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -46865,17 +46868,17 @@
         <v>54</v>
       </c>
       <c r="G21" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -46891,11 +46894,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
@@ -46907,7 +46910,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -46915,7 +46918,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
@@ -46924,23 +46927,23 @@
         <v>54</v>
       </c>
       <c r="G22" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -46950,15 +46953,15 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="R22">
         <f t="shared" si="4"/>
@@ -46974,7 +46977,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
@@ -46983,7 +46986,7 @@
         <v>59</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
@@ -47033,7 +47036,7 @@
         <v>85</v>
       </c>
       <c r="B24" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
         <v>49</v>
@@ -47042,7 +47045,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -47092,7 +47095,7 @@
         <v>86</v>
       </c>
       <c r="B25" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -47101,11 +47104,11 @@
         <v>59</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
@@ -47114,7 +47117,7 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -47127,11 +47130,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
@@ -47151,7 +47154,7 @@
         <v>89</v>
       </c>
       <c r="B26" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>49</v>
@@ -47210,7 +47213,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
         <v>49</v>
@@ -47269,7 +47272,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
@@ -47337,7 +47340,7 @@
         <v>62</v>
       </c>
       <c r="G29" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
@@ -47396,7 +47399,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
@@ -47446,7 +47449,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -47455,17 +47458,17 @@
         <v>62</v>
       </c>
       <c r="G31" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -47481,11 +47484,11 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q31">
         <f t="shared" si="3"/>
@@ -47505,7 +47508,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
         <v>63</v>
@@ -47514,7 +47517,7 @@
         <v>64</v>
       </c>
       <c r="G32" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
@@ -47564,7 +47567,7 @@
         <v>101</v>
       </c>
       <c r="B33" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
         <v>63</v>
@@ -47573,11 +47576,11 @@
         <v>64</v>
       </c>
       <c r="G33" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
@@ -47586,10 +47589,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -47603,11 +47606,11 @@
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="Q33">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="R33">
         <f t="shared" si="4"/>
@@ -47623,7 +47626,7 @@
         <v>102</v>
       </c>
       <c r="B34" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>63</v>
@@ -47632,23 +47635,23 @@
         <v>64</v>
       </c>
       <c r="G34" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
         <v>24</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -47658,15 +47661,15 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="P34">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="Q34">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="R34">
         <f t="shared" si="4"/>
@@ -47682,7 +47685,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>63</v>
@@ -47691,7 +47694,7 @@
         <v>70</v>
       </c>
       <c r="G35" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
@@ -47741,7 +47744,7 @@
         <v>108</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
@@ -47750,11 +47753,11 @@
         <v>70</v>
       </c>
       <c r="G36" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -47766,7 +47769,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <v>4</v>
@@ -47784,11 +47787,11 @@
       </c>
       <c r="Q36">
         <f t="shared" si="3"/>
-        <v>0.63636363636363635</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R36">
         <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S36">
         <f t="shared" si="5"/>
@@ -47800,7 +47803,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>63</v>
@@ -47809,23 +47812,23 @@
         <v>70</v>
       </c>
       <c r="G37" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
         <v>24</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -47835,7 +47838,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="P37">
         <f t="shared" si="2"/>
@@ -47847,7 +47850,7 @@
       </c>
       <c r="R37">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S37">
         <f t="shared" si="5"/>
@@ -47859,7 +47862,7 @@
         <v>110</v>
       </c>
       <c r="B38" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>63</v>
@@ -47868,7 +47871,7 @@
         <v>72</v>
       </c>
       <c r="G38" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
@@ -47927,17 +47930,17 @@
         <v>72</v>
       </c>
       <c r="G39" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -47953,15 +47956,15 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P39">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q39">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R39">
         <f t="shared" si="4"/>
@@ -47977,7 +47980,7 @@
         <v>113</v>
       </c>
       <c r="B40" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>63</v>
@@ -47986,7 +47989,7 @@
         <v>72</v>
       </c>
       <c r="G40" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
@@ -48036,7 +48039,7 @@
         <v>115</v>
       </c>
       <c r="B41" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>63</v>
@@ -48095,7 +48098,7 @@
         <v>116</v>
       </c>
       <c r="B42" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>63</v>
@@ -48154,7 +48157,7 @@
         <v>118</v>
       </c>
       <c r="B43" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>63</v>
@@ -48167,7 +48170,7 @@
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -48176,7 +48179,7 @@
         <v>9</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -48189,15 +48192,15 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
+        <v>0.5</v>
       </c>
       <c r="P43">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Q43">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="R43">
         <f t="shared" si="4"/>
@@ -48213,7 +48216,7 @@
         <v>119</v>
       </c>
       <c r="B44" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
         <v>63</v>
@@ -48222,7 +48225,7 @@
         <v>76</v>
       </c>
       <c r="G44" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="0"/>
@@ -48272,7 +48275,7 @@
         <v>122</v>
       </c>
       <c r="B45" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
         <v>63</v>
@@ -48281,7 +48284,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="0"/>
@@ -48331,7 +48334,7 @@
         <v>124</v>
       </c>
       <c r="B46" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>63</v>
@@ -48340,11 +48343,11 @@
         <v>76</v>
       </c>
       <c r="G46" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -48353,7 +48356,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L46">
         <v>4</v>
@@ -48370,11 +48373,11 @@
       </c>
       <c r="P46">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="Q46">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="R46">
         <f t="shared" si="4"/>
@@ -48399,7 +48402,7 @@
         <v>78</v>
       </c>
       <c r="G47" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
@@ -48458,11 +48461,11 @@
         <v>78</v>
       </c>
       <c r="G48" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -48471,10 +48474,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>2</v>
@@ -48488,19 +48491,19 @@
       </c>
       <c r="P48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q48">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="R48">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S48">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -48508,7 +48511,7 @@
         <v>128</v>
       </c>
       <c r="B49" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
         <v>77</v>
@@ -48517,17 +48520,17 @@
         <v>78</v>
       </c>
       <c r="G49" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -48539,11 +48542,11 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P49">
         <f t="shared" si="2"/>
@@ -48551,7 +48554,7 @@
       </c>
       <c r="Q49">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R49">
         <f t="shared" si="4"/>
@@ -48559,7 +48562,7 @@
       </c>
       <c r="S49">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -48567,7 +48570,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
         <v>77</v>
@@ -48576,7 +48579,7 @@
         <v>80</v>
       </c>
       <c r="G50" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="0"/>
@@ -48626,7 +48629,7 @@
         <v>141</v>
       </c>
       <c r="B51" s="2">
-        <v>631</v>
+        <v>791</v>
       </c>
       <c r="E51" t="s">
         <v>77</v>
@@ -48635,7 +48638,7 @@
         <v>80</v>
       </c>
       <c r="G51" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="0"/>
@@ -48688,23 +48691,23 @@
         <v>80</v>
       </c>
       <c r="G52" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
       </c>
       <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>7</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>6</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -48714,7 +48717,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="P52">
         <f t="shared" si="2"/>
@@ -48722,7 +48725,7 @@
       </c>
       <c r="Q52">
         <f t="shared" si="3"/>
-        <v>0.46153846153846156</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="R52">
         <f t="shared" si="4"/>
@@ -48741,7 +48744,7 @@
         <v>83</v>
       </c>
       <c r="G53" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="0"/>
@@ -48794,11 +48797,11 @@
         <v>83</v>
       </c>
       <c r="G54" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
@@ -48810,7 +48813,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>11</v>
@@ -48828,11 +48831,11 @@
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S54">
         <f t="shared" si="5"/>
@@ -48847,17 +48850,17 @@
         <v>83</v>
       </c>
       <c r="G55" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
         <v>24</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -48873,7 +48876,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="P55">
         <f t="shared" si="2"/>
@@ -48881,11 +48884,11 @@
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R55">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="S55">
         <f t="shared" si="5"/>
@@ -48900,11 +48903,11 @@
         <v>85</v>
       </c>
       <c r="G56" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -48919,7 +48922,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -48953,17 +48956,17 @@
         <v>85</v>
       </c>
       <c r="G57" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -48972,10 +48975,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
@@ -48991,11 +48994,11 @@
       </c>
       <c r="R57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="S57">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -49006,41 +49009,41 @@
         <v>85</v>
       </c>
       <c r="G58" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
         <v>24</v>
       </c>
       <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>5</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>4</v>
-      </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="Q58">
         <f t="shared" si="3"/>
-        <v>0.44444444444444442</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="R58">
         <f t="shared" si="4"/>
@@ -49048,7 +49051,7 @@
       </c>
       <c r="S58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -49059,11 +49062,11 @@
         <v>86</v>
       </c>
       <c r="G59" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -49078,7 +49081,7 @@
         <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -49093,11 +49096,11 @@
       </c>
       <c r="Q59">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="R59">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="S59">
         <f t="shared" si="5"/>
@@ -49112,11 +49115,11 @@
         <v>86</v>
       </c>
       <c r="G60" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I60" t="s">
         <v>20</v>
@@ -49128,7 +49131,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -49138,7 +49141,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P60">
         <f t="shared" si="2"/>
@@ -49146,15 +49149,15 @@
       </c>
       <c r="Q60">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="R60">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="S60">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -49165,20 +49168,20 @@
         <v>86</v>
       </c>
       <c r="G61" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
         <v>24</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -49195,11 +49198,11 @@
       </c>
       <c r="P61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q61">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R61">
         <f t="shared" si="4"/>
@@ -49218,11 +49221,11 @@
         <v>89</v>
       </c>
       <c r="G62" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H62" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -49234,7 +49237,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>5</v>
@@ -49252,11 +49255,11 @@
       </c>
       <c r="Q62">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R62">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S62">
         <f t="shared" si="5"/>
@@ -49271,11 +49274,11 @@
         <v>89</v>
       </c>
       <c r="G63" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H63" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
@@ -49287,7 +49290,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -49305,11 +49308,11 @@
       </c>
       <c r="Q63">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R63">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S63">
         <f t="shared" si="5"/>
@@ -49324,23 +49327,23 @@
         <v>89</v>
       </c>
       <c r="G64" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I64" t="s">
         <v>24</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -49350,7 +49353,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P64">
         <f t="shared" si="2"/>
@@ -49358,7 +49361,7 @@
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="R64">
         <f t="shared" si="4"/>
@@ -49377,7 +49380,7 @@
         <v>91</v>
       </c>
       <c r="G65" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H65" s="7">
         <f t="shared" si="0"/>
@@ -49430,33 +49433,33 @@
         <v>91</v>
       </c>
       <c r="G66" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H66" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="P66">
         <f t="shared" si="2"/>
@@ -49464,15 +49467,15 @@
       </c>
       <c r="Q66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R66">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="S66">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
@@ -49483,7 +49486,7 @@
         <v>91</v>
       </c>
       <c r="G67" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H67" s="7">
         <f t="shared" ref="H67:H130" si="6">SUM(J67:N67)</f>
@@ -49536,17 +49539,17 @@
         <v>93</v>
       </c>
       <c r="G68" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H68" s="7">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I68" t="s">
         <v>15</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -49555,14 +49558,14 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P68">
         <f t="shared" si="8"/>
@@ -49570,11 +49573,11 @@
       </c>
       <c r="Q68">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="R68">
         <f t="shared" si="10"/>
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="S68">
         <f t="shared" si="11"/>
@@ -49589,7 +49592,7 @@
         <v>93</v>
       </c>
       <c r="G69" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H69" s="7">
         <f t="shared" si="6"/>
@@ -49642,20 +49645,20 @@
         <v>93</v>
       </c>
       <c r="G70" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H70" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
         <v>24</v>
       </c>
       <c r="J70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -49668,11 +49671,11 @@
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <f t="shared" si="8"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <f t="shared" si="9"/>
@@ -50013,7 +50016,7 @@
         <v>98</v>
       </c>
       <c r="G77" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="6"/>
@@ -50066,11 +50069,11 @@
         <v>98</v>
       </c>
       <c r="G78" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I78" t="s">
         <v>20</v>
@@ -50082,10 +50085,10 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -50100,11 +50103,11 @@
       </c>
       <c r="Q78">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="R78">
         <f t="shared" si="10"/>
-        <v>0.8571428571428571</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S78">
         <f t="shared" si="11"/>
@@ -50119,23 +50122,23 @@
         <v>98</v>
       </c>
       <c r="G79" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H79" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I79" t="s">
         <v>24</v>
       </c>
       <c r="J79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <v>3</v>
@@ -50145,7 +50148,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="P79">
         <f t="shared" si="8"/>
@@ -50153,11 +50156,11 @@
       </c>
       <c r="Q79">
         <f t="shared" si="9"/>
-        <v>0.22222222222222221</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="R79">
         <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="S79">
         <f t="shared" si="11"/>
@@ -50172,11 +50175,11 @@
         <v>99</v>
       </c>
       <c r="G80" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H80" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I80" t="s">
         <v>15</v>
@@ -50191,7 +50194,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -50210,11 +50213,11 @@
       </c>
       <c r="R80">
         <f t="shared" si="10"/>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="S80">
         <f t="shared" si="11"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
@@ -50225,7 +50228,7 @@
         <v>99</v>
       </c>
       <c r="G81" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H81" s="7">
         <f t="shared" si="6"/>
@@ -50278,7 +50281,7 @@
         <v>99</v>
       </c>
       <c r="G82" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H82" s="7">
         <f t="shared" si="6"/>
@@ -50331,49 +50334,49 @@
         <v>101</v>
       </c>
       <c r="G83" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H83" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I83" t="s">
         <v>15</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>4</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P83">
         <f t="shared" si="8"/>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R83">
         <f t="shared" si="10"/>
-        <v>0.5714285714285714</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="S83">
         <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
@@ -50384,11 +50387,11 @@
         <v>101</v>
       </c>
       <c r="G84" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I84" t="s">
         <v>20</v>
@@ -50400,7 +50403,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -50410,7 +50413,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P84">
         <f t="shared" si="8"/>
@@ -50418,7 +50421,7 @@
       </c>
       <c r="Q84">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R84">
         <f t="shared" si="10"/>
@@ -50437,7 +50440,7 @@
         <v>101</v>
       </c>
       <c r="G85" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H85" s="7">
         <f t="shared" si="6"/>
@@ -50490,7 +50493,7 @@
         <v>102</v>
       </c>
       <c r="G86" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H86" s="7">
         <f t="shared" si="6"/>
@@ -50543,17 +50546,17 @@
         <v>102</v>
       </c>
       <c r="G87" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H87" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I87" t="s">
         <v>20</v>
       </c>
       <c r="J87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -50596,7 +50599,7 @@
         <v>102</v>
       </c>
       <c r="G88" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H88" s="7">
         <f t="shared" si="6"/>
@@ -50649,7 +50652,7 @@
         <v>104</v>
       </c>
       <c r="G89" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H89" s="7">
         <f t="shared" si="6"/>
@@ -50702,11 +50705,11 @@
         <v>104</v>
       </c>
       <c r="G90" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H90" s="7">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I90" t="s">
         <v>20</v>
@@ -50718,7 +50721,7 @@
         <v>1</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -50728,15 +50731,15 @@
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P90">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Q90">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R90">
         <f t="shared" si="10"/>
@@ -50744,7 +50747,7 @@
       </c>
       <c r="S90">
         <f t="shared" si="11"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
@@ -50755,7 +50758,7 @@
         <v>104</v>
       </c>
       <c r="G91" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H91" s="7">
         <f t="shared" si="6"/>
@@ -50808,7 +50811,7 @@
         <v>108</v>
       </c>
       <c r="G92" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H92" s="7">
         <f t="shared" si="6"/>
@@ -50861,7 +50864,7 @@
         <v>108</v>
       </c>
       <c r="G93" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H93" s="7">
         <f t="shared" si="6"/>
@@ -50914,20 +50917,20 @@
         <v>108</v>
       </c>
       <c r="G94" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H94" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I94" t="s">
         <v>24</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -50940,11 +50943,11 @@
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P94">
         <f t="shared" si="8"/>
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q94">
         <f t="shared" si="9"/>
@@ -51077,19 +51080,19 @@
       </c>
       <c r="H97" s="7">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
         <v>24</v>
       </c>
       <c r="J97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -51099,7 +51102,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="P97">
         <f t="shared" si="8"/>
@@ -51107,7 +51110,7 @@
       </c>
       <c r="Q97">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="R97">
         <f t="shared" si="10"/>
@@ -51126,7 +51129,7 @@
         <v>110</v>
       </c>
       <c r="G98" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H98" s="7">
         <f t="shared" si="6"/>
@@ -51179,11 +51182,11 @@
         <v>110</v>
       </c>
       <c r="G99" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H99" s="7">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I99" t="s">
         <v>20</v>
@@ -51192,10 +51195,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>2</v>
@@ -51209,15 +51212,15 @@
       </c>
       <c r="P99">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="Q99">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R99">
         <f t="shared" si="10"/>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="S99">
         <f t="shared" si="11"/>
@@ -51232,23 +51235,23 @@
         <v>110</v>
       </c>
       <c r="G100" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H100" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
         <v>24</v>
       </c>
       <c r="J100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -51258,7 +51261,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="7"/>
-        <v>0.81818181818181823</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="P100">
         <f t="shared" si="8"/>
@@ -51266,7 +51269,7 @@
       </c>
       <c r="Q100">
         <f t="shared" si="9"/>
-        <v>0.18181818181818182</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R100">
         <f t="shared" si="10"/>
@@ -51444,7 +51447,7 @@
         <v>113</v>
       </c>
       <c r="G104" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H104" s="7">
         <f t="shared" si="6"/>
@@ -51497,7 +51500,7 @@
         <v>113</v>
       </c>
       <c r="G105" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H105" s="7">
         <f t="shared" si="6"/>
@@ -51550,17 +51553,17 @@
         <v>113</v>
       </c>
       <c r="G106" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H106" s="7">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I106" t="s">
         <v>24</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -51576,11 +51579,11 @@
       </c>
       <c r="O106">
         <f t="shared" si="7"/>
-        <v>0.88888888888888884</v>
+        <v>0.9</v>
       </c>
       <c r="P106">
         <f t="shared" si="8"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="Q106">
         <f t="shared" si="9"/>
@@ -51603,7 +51606,7 @@
         <v>115</v>
       </c>
       <c r="G107" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" s="7">
         <f t="shared" si="6"/>
@@ -51656,17 +51659,17 @@
         <v>115</v>
       </c>
       <c r="G108" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I108" t="s">
         <v>20</v>
       </c>
       <c r="J108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -51682,11 +51685,11 @@
       </c>
       <c r="O108">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P108">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q108">
         <f t="shared" si="9"/>
@@ -51709,7 +51712,7 @@
         <v>115</v>
       </c>
       <c r="G109" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" s="7">
         <f t="shared" si="6"/>
@@ -51762,7 +51765,7 @@
         <v>116</v>
       </c>
       <c r="G110" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H110" s="7">
         <f t="shared" si="6"/>
@@ -51815,11 +51818,11 @@
         <v>116</v>
       </c>
       <c r="G111" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H111" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I111" t="s">
         <v>20</v>
@@ -51828,7 +51831,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -51845,7 +51848,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Q111">
         <f t="shared" si="9"/>
@@ -51857,7 +51860,7 @@
       </c>
       <c r="S111">
         <f t="shared" si="11"/>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="112" spans="5:19" x14ac:dyDescent="0.25">
@@ -51868,23 +51871,23 @@
         <v>116</v>
       </c>
       <c r="G112" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H112" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I112" t="s">
         <v>24</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -51894,15 +51897,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P112">
         <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q112">
         <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="R112">
         <f t="shared" si="10"/>
@@ -51921,11 +51924,11 @@
         <v>118</v>
       </c>
       <c r="G113" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H113" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113" t="s">
         <v>15</v>
@@ -51934,7 +51937,7 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -51947,11 +51950,11 @@
       </c>
       <c r="O113">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P113">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q113">
         <f t="shared" si="9"/>
@@ -51974,17 +51977,17 @@
         <v>118</v>
       </c>
       <c r="G114" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H114" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I114" t="s">
         <v>20</v>
       </c>
       <c r="J114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -52027,17 +52030,17 @@
         <v>118</v>
       </c>
       <c r="G115" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H115" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I115" t="s">
         <v>24</v>
       </c>
       <c r="J115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -52080,7 +52083,7 @@
         <v>119</v>
       </c>
       <c r="G116" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H116" s="7">
         <f t="shared" si="6"/>
@@ -52133,7 +52136,7 @@
         <v>119</v>
       </c>
       <c r="G117" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H117" s="7">
         <f t="shared" si="6"/>
@@ -52186,23 +52189,23 @@
         <v>119</v>
       </c>
       <c r="G118" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H118" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I118" t="s">
         <v>24</v>
       </c>
       <c r="J118">
+        <v>5</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
         <v>4</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>2</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -52212,7 +52215,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P118">
         <f t="shared" si="8"/>
@@ -52220,7 +52223,7 @@
       </c>
       <c r="Q118">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="R118">
         <f t="shared" si="10"/>
@@ -52239,7 +52242,7 @@
         <v>122</v>
       </c>
       <c r="G119" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H119" s="7">
         <f t="shared" si="6"/>
@@ -52292,11 +52295,11 @@
         <v>122</v>
       </c>
       <c r="G120" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H120" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I120" t="s">
         <v>20</v>
@@ -52314,11 +52317,11 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P120">
         <f t="shared" si="8"/>
@@ -52334,7 +52337,7 @@
       </c>
       <c r="S120">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="121" spans="5:19" x14ac:dyDescent="0.25">
@@ -52345,23 +52348,23 @@
         <v>122</v>
       </c>
       <c r="G121" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H121" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I121" t="s">
         <v>24</v>
       </c>
       <c r="J121">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -52371,7 +52374,7 @@
       </c>
       <c r="O121">
         <f t="shared" si="7"/>
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P121">
         <f t="shared" si="8"/>
@@ -52379,7 +52382,7 @@
       </c>
       <c r="Q121">
         <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R121">
         <f t="shared" si="10"/>
@@ -52398,23 +52401,23 @@
         <v>124</v>
       </c>
       <c r="G122" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H122" s="7">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I122" t="s">
         <v>15</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -52424,7 +52427,7 @@
       </c>
       <c r="O122">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="P122">
         <f t="shared" si="8"/>
@@ -52432,7 +52435,7 @@
       </c>
       <c r="Q122">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="R122">
         <f t="shared" si="10"/>
@@ -52440,7 +52443,7 @@
       </c>
       <c r="S122">
         <f t="shared" si="11"/>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="123" spans="5:19" x14ac:dyDescent="0.25">
@@ -52451,11 +52454,11 @@
         <v>124</v>
       </c>
       <c r="G123" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H123" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
         <v>20</v>
@@ -52467,7 +52470,7 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -52477,7 +52480,7 @@
       </c>
       <c r="O123">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P123">
         <f t="shared" si="8"/>
@@ -52485,7 +52488,7 @@
       </c>
       <c r="Q123">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R123">
         <f t="shared" si="10"/>
@@ -52504,7 +52507,7 @@
         <v>124</v>
       </c>
       <c r="G124" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H124" s="7">
         <f t="shared" si="6"/>
@@ -52875,7 +52878,7 @@
         <v>128</v>
       </c>
       <c r="G131" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H131" s="7">
         <f t="shared" ref="H131:H136" si="12">SUM(J131:N131)</f>
@@ -52928,11 +52931,11 @@
         <v>128</v>
       </c>
       <c r="G132" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H132" s="7">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132" t="s">
         <v>20</v>
@@ -52944,7 +52947,7 @@
         <v>2</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -52958,11 +52961,11 @@
       </c>
       <c r="P132">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q132">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R132">
         <f t="shared" si="16"/>
@@ -52981,11 +52984,11 @@
         <v>128</v>
       </c>
       <c r="G133" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H133" s="7">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I133" t="s">
         <v>24</v>
@@ -52994,10 +52997,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -53011,11 +53014,11 @@
       </c>
       <c r="P133">
         <f t="shared" si="14"/>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Q133">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R133">
         <f t="shared" si="16"/>
@@ -53034,7 +53037,7 @@
         <v>129</v>
       </c>
       <c r="G134" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H134" s="7">
         <f t="shared" si="12"/>
@@ -53087,7 +53090,7 @@
         <v>129</v>
       </c>
       <c r="G135" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H135" s="7">
         <f t="shared" si="12"/>
@@ -53140,11 +53143,11 @@
         <v>129</v>
       </c>
       <c r="G136" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H136" s="7">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I136" t="s">
         <v>24</v>
@@ -53153,7 +53156,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -53197,7 +53200,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="A2" sqref="A2:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53260,7 +53263,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -53307,7 +53310,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -53354,22 +53357,22 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -53378,13 +53381,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="L4" s="8">
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <v>0.88888888888888884</v>
+        <v>0.75</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -53401,10 +53404,10 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -53416,7 +53419,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -53431,13 +53434,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -53448,7 +53451,7 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -53460,10 +53463,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -53475,10 +53478,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M6" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
@@ -53495,22 +53498,22 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -53519,13 +53522,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <v>0.88888888888888884</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="L7" s="8">
-        <v>0.1111111111111111</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M7" s="8">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
@@ -53683,7 +53686,7 @@
         <v>43</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -53730,10 +53733,10 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -53745,7 +53748,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -53754,19 +53757,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="8">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
       </c>
       <c r="M12" s="8">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -53777,22 +53780,22 @@
         <v>43</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -53824,7 +53827,7 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -53871,22 +53874,22 @@
         <v>47</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -53895,13 +53898,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L15" s="8">
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
@@ -53918,22 +53921,22 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -53942,13 +53945,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
       </c>
       <c r="M16" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
@@ -53965,13 +53968,13 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -53980,10 +53983,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -53995,10 +53998,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8">
         <v>0</v>
@@ -54012,43 +54015,43 @@
         <v>50</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="8">
-        <v>0.6</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N18" s="8">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O18" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -54059,43 +54062,43 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L19" s="8">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M19" s="8">
-        <v>0</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="8">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -54106,7 +54109,7 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -54153,16 +54156,16 @@
         <v>54</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -54177,10 +54180,10 @@
         <v>2</v>
       </c>
       <c r="K21" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L21" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M21" s="8">
         <v>0</v>
@@ -54189,7 +54192,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -54200,22 +54203,22 @@
         <v>54</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -54224,13 +54227,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="8">
-        <v>0.8</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L22" s="8">
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M22" s="8">
-        <v>0.2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -54247,16 +54250,16 @@
         <v>59</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -54271,7 +54274,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="8">
         <v>0</v>
@@ -54294,13 +54297,13 @@
         <v>59</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -54341,19 +54344,19 @@
         <v>59</v>
       </c>
       <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -54365,10 +54368,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L25" s="8">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M25" s="8">
         <v>0</v>
@@ -54529,7 +54532,7 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -54576,7 +54579,7 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -54623,16 +54626,16 @@
         <v>62</v>
       </c>
       <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
         <v>9</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -54647,10 +54650,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <v>0.8571428571428571</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="L31" s="8">
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M31" s="8">
         <v>0</v>
@@ -54670,7 +54673,7 @@
         <v>64</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -54717,10 +54720,10 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -54729,10 +54732,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -54744,10 +54747,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="M33" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="N33" s="8">
         <v>0</v>
@@ -54764,22 +54767,22 @@
         <v>64</v>
       </c>
       <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34">
         <v>13</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -54788,13 +54791,13 @@
         <v>0</v>
       </c>
       <c r="K34" s="8">
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L34" s="8">
-        <v>0.1111111111111111</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M34" s="8">
-        <v>0.88888888888888884</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="N34" s="8">
         <v>0</v>
@@ -54811,7 +54814,7 @@
         <v>70</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -54858,10 +54861,10 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -54873,7 +54876,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -54888,10 +54891,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="8">
-        <v>0.63636363636363635</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N36" s="8">
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O36" s="8">
         <v>0</v>
@@ -54905,22 +54908,22 @@
         <v>70</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>24</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -54929,7 +54932,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="L37" s="8">
         <v>0</v>
@@ -54938,7 +54941,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N37" s="8">
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O37" s="8">
         <v>0</v>
@@ -54952,7 +54955,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -54999,16 +55002,16 @@
         <v>72</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -55023,13 +55026,13 @@
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L39" s="8">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M39" s="8">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N39" s="8">
         <v>0</v>
@@ -55046,7 +55049,7 @@
         <v>72</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>8</v>
@@ -55096,16 +55099,16 @@
         <v>14</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -55120,7 +55123,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="8">
         <v>0</v>
@@ -55143,19 +55146,19 @@
         <v>14</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -55164,13 +55167,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="8">
-        <v>0.69230769230769229</v>
+        <v>0</v>
       </c>
       <c r="L42" s="8">
-        <v>0.23076923076923078</v>
+        <v>1</v>
       </c>
       <c r="M42" s="8">
-        <v>7.6923076923076927E-2</v>
+        <v>0</v>
       </c>
       <c r="N42" s="8">
         <v>0</v>
@@ -55190,19 +55193,19 @@
         <v>14</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -55211,13 +55214,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L43" s="8">
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M43" s="8">
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="N43" s="8">
         <v>0</v>
@@ -55234,7 +55237,7 @@
         <v>76</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -55281,7 +55284,7 @@
         <v>76</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -55328,10 +55331,10 @@
         <v>76</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
         <v>24</v>
@@ -55340,7 +55343,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -55355,10 +55358,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="M46" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="N46" s="8">
         <v>0</v>
@@ -55375,7 +55378,7 @@
         <v>78</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -55422,10 +55425,10 @@
         <v>78</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -55434,10 +55437,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -55449,16 +55452,16 @@
         <v>0</v>
       </c>
       <c r="L48" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M48" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="N48" s="8">
         <v>0.25</v>
       </c>
-      <c r="N48" s="8">
-        <v>0.5</v>
-      </c>
       <c r="O48" s="8">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -55469,16 +55472,16 @@
         <v>78</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -55490,22 +55493,22 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="8">
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L49" s="8">
         <v>0</v>
       </c>
       <c r="M49" s="8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N49" s="8">
         <v>0</v>
       </c>
       <c r="O49" s="8">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -55516,7 +55519,7 @@
         <v>80</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D50">
         <v>7</v>
@@ -55563,7 +55566,7 @@
         <v>80</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <v>11</v>
@@ -55610,23 +55613,23 @@
         <v>80</v>
       </c>
       <c r="C52">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
         <v>24</v>
       </c>
       <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>7</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>6</v>
-      </c>
       <c r="I52">
         <v>0</v>
       </c>
@@ -55634,13 +55637,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="8">
-        <v>0.53846153846153844</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="L52" s="8">
         <v>0</v>
       </c>
       <c r="M52" s="8">
-        <v>0.46153846153846156</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="N52" s="8">
         <v>0</v>
@@ -55657,7 +55660,7 @@
         <v>83</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -55704,10 +55707,10 @@
         <v>83</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
         <v>20</v>
@@ -55719,7 +55722,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>11</v>
@@ -55734,10 +55737,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="8">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N54" s="8">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O54" s="8">
         <v>0</v>
@@ -55751,16 +55754,16 @@
         <v>83</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
         <v>24</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -55775,16 +55778,16 @@
         <v>0</v>
       </c>
       <c r="K55" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="L55" s="8">
         <v>0</v>
       </c>
       <c r="M55" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N55" s="8">
-        <v>0.25</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="O55" s="8">
         <v>0</v>
@@ -55798,10 +55801,10 @@
         <v>85</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -55816,7 +55819,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -55845,16 +55848,16 @@
         <v>85</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
         <v>20</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -55863,10 +55866,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" s="8">
         <v>0.5</v>
@@ -55878,10 +55881,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="8">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O57" s="8">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -55892,43 +55895,43 @@
         <v>85</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
         <v>24</v>
       </c>
       <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>5</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>4</v>
-      </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" s="8">
-        <v>0.55555555555555558</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="L58" s="8">
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M58" s="8">
-        <v>0.44444444444444442</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="N58" s="8">
         <v>0</v>
       </c>
       <c r="O58" s="8">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -55939,10 +55942,10 @@
         <v>86</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -55957,7 +55960,7 @@
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -55969,10 +55972,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="N59" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="O59" s="8">
         <v>0</v>
@@ -55986,10 +55989,10 @@
         <v>86</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -56001,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -56010,19 +56013,19 @@
         <v>1</v>
       </c>
       <c r="K60" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L60" s="8">
         <v>0</v>
       </c>
       <c r="M60" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N60" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O60" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -56033,19 +56036,19 @@
         <v>86</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -56060,10 +56063,10 @@
         <v>0.75</v>
       </c>
       <c r="L61" s="8">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M61" s="8">
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N61" s="8">
         <v>0</v>
@@ -56080,10 +56083,10 @@
         <v>89</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -56095,7 +56098,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>5</v>
@@ -56110,10 +56113,10 @@
         <v>0</v>
       </c>
       <c r="M62" s="8">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N62" s="8">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O62" s="8">
         <v>0</v>
@@ -56127,10 +56130,10 @@
         <v>89</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -56142,7 +56145,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -56157,10 +56160,10 @@
         <v>0</v>
       </c>
       <c r="M63" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N63" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O63" s="8">
         <v>0</v>
@@ -56174,22 +56177,22 @@
         <v>89</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -56198,13 +56201,13 @@
         <v>0</v>
       </c>
       <c r="K64" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L64" s="8">
         <v>0</v>
       </c>
       <c r="M64" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N64" s="8">
         <v>0</v>
@@ -56221,7 +56224,7 @@
         <v>91</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -56268,43 +56271,43 @@
         <v>91</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" s="8">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L66" s="8">
         <v>0</v>
       </c>
       <c r="M66" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N66" s="8">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="O66" s="8">
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -56315,7 +56318,7 @@
         <v>91</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D67">
         <v>9</v>
@@ -56362,16 +56365,16 @@
         <v>93</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -56380,22 +56383,22 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="8">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L68" s="8">
         <v>0</v>
       </c>
       <c r="M68" s="8">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N68" s="8">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O68" s="8">
         <v>0</v>
@@ -56409,7 +56412,7 @@
         <v>93</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -56456,19 +56459,19 @@
         <v>93</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
         <v>24</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -56480,10 +56483,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="8">
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="L70" s="8">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="M70" s="8">
         <v>0</v>
@@ -56647,16 +56650,16 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -56671,7 +56674,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="8">
         <v>0</v>
@@ -56694,37 +56697,37 @@
         <v>8</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="8">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="L75" s="8">
-        <v>0.14285714285714285</v>
+        <v>1</v>
       </c>
       <c r="M75" s="8">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="N75" s="8">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="O75" s="8">
         <v>0</v>
@@ -56741,37 +56744,37 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="8">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L76" s="8">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M76" s="8">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N76" s="8">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O76" s="8">
         <v>0</v>
@@ -56785,7 +56788,7 @@
         <v>98</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -56832,10 +56835,10 @@
         <v>98</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
         <v>20</v>
@@ -56847,10 +56850,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -56862,10 +56865,10 @@
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <v>0.14285714285714285</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N78" s="8">
-        <v>0.8571428571428571</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O78" s="8">
         <v>0</v>
@@ -56879,22 +56882,22 @@
         <v>98</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
         <v>24</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -56903,16 +56906,16 @@
         <v>0</v>
       </c>
       <c r="K79" s="8">
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="L79" s="8">
         <v>0</v>
       </c>
       <c r="M79" s="8">
-        <v>0.22222222222222221</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N79" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O79" s="8">
         <v>0</v>
@@ -56926,10 +56929,10 @@
         <v>99</v>
       </c>
       <c r="C80">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -56944,7 +56947,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -56959,10 +56962,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="8">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="O80" s="8">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -56973,7 +56976,7 @@
         <v>99</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -57020,7 +57023,7 @@
         <v>99</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -57067,43 +57070,43 @@
         <v>101</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>4</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" s="8">
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L83" s="8">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="M83" s="8">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N83" s="8">
-        <v>0.5714285714285714</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O83" s="8">
-        <v>0.14285714285714285</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -57114,10 +57117,10 @@
         <v>101</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
         <v>20</v>
@@ -57129,7 +57132,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -57138,13 +57141,13 @@
         <v>0</v>
       </c>
       <c r="K84" s="8">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L84" s="8">
         <v>0</v>
       </c>
       <c r="M84" s="8">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -57161,7 +57164,7 @@
         <v>101</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -57208,7 +57211,7 @@
         <v>102</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -57255,16 +57258,16 @@
         <v>102</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
         <v>20</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -57302,7 +57305,7 @@
         <v>102</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -57349,7 +57352,7 @@
         <v>104</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -57396,10 +57399,10 @@
         <v>104</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
         <v>20</v>
@@ -57411,7 +57414,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -57420,19 +57423,19 @@
         <v>1</v>
       </c>
       <c r="K90" s="8">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L90" s="8">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M90" s="8">
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N90" s="8">
         <v>0</v>
       </c>
       <c r="O90" s="8">
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -57443,7 +57446,7 @@
         <v>104</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -57490,19 +57493,19 @@
         <v>108</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -57514,10 +57517,10 @@
         <v>0</v>
       </c>
       <c r="K92" s="8">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L92" s="8">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="M92" s="8">
         <v>0</v>
@@ -57537,13 +57540,13 @@
         <v>108</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -57584,19 +57587,19 @@
         <v>108</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -57608,10 +57611,10 @@
         <v>0</v>
       </c>
       <c r="K94" s="8">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L94" s="8">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M94" s="8">
         <v>0</v>
@@ -57634,19 +57637,19 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -57655,13 +57658,13 @@
         <v>0</v>
       </c>
       <c r="K95" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L95" s="8">
         <v>0</v>
       </c>
       <c r="M95" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N95" s="8">
         <v>0</v>
@@ -57684,7 +57687,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -57728,19 +57731,19 @@
         <v>8</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -57749,13 +57752,13 @@
         <v>0</v>
       </c>
       <c r="K97" s="8">
-        <v>0</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="L97" s="8">
         <v>0</v>
       </c>
       <c r="M97" s="8">
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="N97" s="8">
         <v>0</v>
@@ -57772,25 +57775,25 @@
         <v>110</v>
       </c>
       <c r="C98">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -57799,13 +57802,13 @@
         <v>0</v>
       </c>
       <c r="L98" s="8">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M98" s="8">
         <v>0</v>
       </c>
       <c r="N98" s="8">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="O98" s="8">
         <v>0</v>
@@ -57819,40 +57822,40 @@
         <v>110</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>2</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="8">
-        <v>0.81818181818181823</v>
+        <v>0</v>
       </c>
       <c r="L99" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M99" s="8">
-        <v>0.18181818181818182</v>
+        <v>0.2</v>
       </c>
       <c r="N99" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O99" s="8">
         <v>0</v>
@@ -57866,22 +57869,22 @@
         <v>110</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -57890,13 +57893,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="8">
-        <v>0</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="L100" s="8">
         <v>0</v>
       </c>
       <c r="M100" s="8">
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N100" s="8">
         <v>0</v>
@@ -57916,16 +57919,16 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -57940,7 +57943,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="8">
         <v>0</v>
@@ -57963,16 +57966,16 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -57984,10 +57987,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L102" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M102" s="8">
         <v>0</v>
@@ -58010,16 +58013,16 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -58031,10 +58034,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L103" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M103" s="8">
         <v>0</v>
@@ -58054,19 +58057,19 @@
         <v>113</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -58081,7 +58084,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" s="8">
         <v>0</v>
@@ -58101,19 +58104,19 @@
         <v>113</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -58125,10 +58128,10 @@
         <v>0</v>
       </c>
       <c r="K105" s="8">
-        <v>0.88888888888888884</v>
+        <v>0</v>
       </c>
       <c r="L105" s="8">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="M105" s="8">
         <v>0</v>
@@ -58148,19 +58151,19 @@
         <v>113</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -58172,10 +58175,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L106" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M106" s="8">
         <v>0</v>
@@ -58195,19 +58198,19 @@
         <v>115</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -58219,10 +58222,10 @@
         <v>0</v>
       </c>
       <c r="K107" s="8">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="L107" s="8">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M107" s="8">
         <v>0</v>
@@ -58242,19 +58245,19 @@
         <v>115</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -58266,10 +58269,10 @@
         <v>0</v>
       </c>
       <c r="K108" s="8">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L108" s="8">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M108" s="8">
         <v>0</v>
@@ -58289,7 +58292,7 @@
         <v>115</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -58336,7 +58339,7 @@
         <v>116</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -58383,10 +58386,10 @@
         <v>116</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
         <v>20</v>
@@ -58395,7 +58398,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -58410,7 +58413,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="M111" s="8">
         <v>0</v>
@@ -58419,7 +58422,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -58430,22 +58433,22 @@
         <v>116</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
         <v>24</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -58454,13 +58457,13 @@
         <v>0</v>
       </c>
       <c r="K112" s="8">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L112" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M112" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N112" s="8">
         <v>0</v>
@@ -58477,10 +58480,10 @@
         <v>118</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -58489,7 +58492,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -58501,10 +58504,10 @@
         <v>0</v>
       </c>
       <c r="K113" s="8">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L113" s="8">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M113" s="8">
         <v>0</v>
@@ -58524,16 +58527,16 @@
         <v>118</v>
       </c>
       <c r="C114">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -58571,16 +58574,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
         <v>24</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -58618,7 +58621,7 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -58665,7 +58668,7 @@
         <v>119</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -58712,23 +58715,23 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
         <v>24</v>
       </c>
       <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>4</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
       <c r="I118">
         <v>0</v>
       </c>
@@ -58736,13 +58739,13 @@
         <v>0</v>
       </c>
       <c r="K118" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L118" s="8">
         <v>0</v>
       </c>
       <c r="M118" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N118" s="8">
         <v>0</v>
@@ -58759,7 +58762,7 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -58806,43 +58809,43 @@
         <v>122</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="8">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L120" s="8">
         <v>0</v>
       </c>
       <c r="M120" s="8">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="N120" s="8">
         <v>0</v>
       </c>
       <c r="O120" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -58853,22 +58856,22 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -58877,13 +58880,13 @@
         <v>0</v>
       </c>
       <c r="K121" s="8">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L121" s="8">
         <v>0</v>
       </c>
       <c r="M121" s="8">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N121" s="8">
         <v>0</v>
@@ -58900,43 +58903,43 @@
         <v>124</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L122" s="8">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="M122" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="N122" s="8">
         <v>0</v>
       </c>
       <c r="O122" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -58947,16 +58950,16 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D123">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -58968,10 +58971,10 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L123" s="8">
         <v>0</v>
@@ -58983,7 +58986,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="8">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -58994,22 +58997,22 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -59018,13 +59021,13 @@
         <v>0</v>
       </c>
       <c r="K124" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="8">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M124" s="8">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N124" s="8">
         <v>0</v>
@@ -59232,10 +59235,10 @@
         <v>11</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F129">
         <v>3</v>
@@ -59244,7 +59247,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -59253,13 +59256,13 @@
         <v>0</v>
       </c>
       <c r="K129" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L129" s="8">
         <v>0</v>
       </c>
       <c r="M129" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N129" s="8">
         <v>0</v>
@@ -59279,10 +59282,10 @@
         <v>11</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F130">
         <v>3</v>
@@ -59291,7 +59294,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -59300,13 +59303,13 @@
         <v>0</v>
       </c>
       <c r="K130" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L130" s="8">
         <v>0</v>
       </c>
       <c r="M130" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N130" s="8">
         <v>0</v>
@@ -59323,7 +59326,7 @@
         <v>128</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -59370,10 +59373,10 @@
         <v>128</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
         <v>20</v>
@@ -59385,7 +59388,7 @@
         <v>2</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -59397,10 +59400,10 @@
         <v>0</v>
       </c>
       <c r="L132" s="8">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M132" s="8">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N132" s="8">
         <v>0</v>
@@ -59417,10 +59420,10 @@
         <v>128</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
         <v>24</v>
@@ -59429,10 +59432,10 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -59444,10 +59447,10 @@
         <v>0</v>
       </c>
       <c r="L133" s="8">
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M133" s="8">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N133" s="8">
         <v>0</v>
@@ -59464,7 +59467,7 @@
         <v>129</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -59511,19 +59514,19 @@
         <v>129</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -59538,7 +59541,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" s="8">
         <v>0</v>
@@ -59558,19 +59561,19 @@
         <v>129</v>
       </c>
       <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="D136">
         <v>6</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -59585,7 +59588,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" s="8">
         <v>0</v>
@@ -59598,8 +59601,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O137">
-    <sortCondition ref="B1:B137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O136">
+    <sortCondition ref="B1:B136"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
